--- a/assets/Docs/UseCaseLibrary_RealisationDocument.xlsx
+++ b/assets/Docs/UseCaseLibrary_RealisationDocument.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cegekagroup-my.sharepoint.com/personal/jarne_willems_cegeka_com/Documents/Realisationdocument/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281276D0-12E8-4FF1-903D-C3D3E6138109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{281276D0-12E8-4FF1-903D-C3D3E6138109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683425D9-6116-46BF-BFA9-C1D4E312A972}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,15 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t xml:space="preserve">Applied filters:
 customer is </t>
   </si>
   <si>
+    <t xml:space="preserve">Green -&gt; Only available in Splunk   ----   Blue -&gt; Only available in Sentinel   -----    Yellow -&gt; Present in both   -----   Red -&gt; Changed by me  ---- </t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Name Optimized</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Match Tag</t>
+  </si>
+  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -57,9 +69,15 @@
     <t>Is Active</t>
   </si>
   <si>
+    <t>Techniques optimized</t>
+  </si>
+  <si>
     <t>Techniques</t>
   </si>
   <si>
+    <t>Tactics optimized</t>
+  </si>
+  <si>
     <t>Tactics</t>
   </si>
   <si>
@@ -90,13 +108,64 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>Windows - Brute Force Password Guessing Detected</t>
+  </si>
+  <si>
+    <t>Windows - Multiple failed logins due to Brute force password guessing</t>
+  </si>
+  <si>
+    <t>Windows - Brute Force Password Guessing</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Security Event Log</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>T1110</t>
+  </si>
+  <si>
+    <t>T1110, T1078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Credential Access</t>
+  </si>
+  <si>
+    <t>Credential Access, Initial Access</t>
+  </si>
+  <si>
+    <t>Cegeka</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>Gitlab</t>
+  </si>
+  <si>
+    <t>Audit logon failures enabled</t>
+  </si>
+  <si>
+    <t>Detects multiple failed login attempts from a single IP or username in a short time window.</t>
+  </si>
+  <si>
     <t>Sentinel</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Cegeka</t>
+    <t>Windows - Brute Force password guessing detected</t>
+  </si>
+  <si>
+    <t>Credential Access</t>
   </si>
   <si>
     <t>DevOps</t>
@@ -108,156 +177,90 @@
     <t>2024-08-12T14:58:00+00:00</t>
   </si>
   <si>
+    <t>Detects multiple failed login attempts from a single IP.</t>
+  </si>
+  <si>
+    <t>Windows - Suspicious PowerShell Execution - With Admin Privileges</t>
+  </si>
+  <si>
+    <t>Windows - Powershell Execution By Admin</t>
+  </si>
+  <si>
+    <t>Windows - Suspicious PowerShell Execution</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
+    <t>Sysmon</t>
+  </si>
+  <si>
+    <t>T1059</t>
+  </si>
+  <si>
     <t>Execution</t>
   </si>
   <si>
-    <t>Splunk</t>
-  </si>
-  <si>
-    <t>T1110</t>
-  </si>
-  <si>
-    <t>T1059</t>
-  </si>
-  <si>
-    <t>T1110, T1078</t>
+    <t>Sysmon logging for process creation</t>
+  </si>
+  <si>
+    <t>Detects PowerShell executions, initiated by admin users</t>
+  </si>
+  <si>
+    <t>Windows - Suspicious PowerShell Execution Detected</t>
   </si>
   <si>
     <t>T1036</t>
   </si>
   <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>Techniques optimized</t>
-  </si>
-  <si>
-    <t>Tactics optimized</t>
-  </si>
-  <si>
     <t>Defense Evasion</t>
   </si>
   <si>
-    <t>Match Tag</t>
-  </si>
-  <si>
-    <t>Name Optimized</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Windows - Multiple failed logins due to Brute force password guessing</t>
-  </si>
-  <si>
-    <t>Windows - Brute Force password guessing detected</t>
-  </si>
-  <si>
-    <t>Windows - Brute Force Password Guessing</t>
-  </si>
-  <si>
-    <t>Security Event Log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Credential Access</t>
-  </si>
-  <si>
-    <t>Credential Access, Initial Access</t>
-  </si>
-  <si>
-    <t>Incident</t>
-  </si>
-  <si>
-    <t>Gitlab</t>
-  </si>
-  <si>
-    <t>Detects multiple failed login attempts from a single IP or username in a short time window.</t>
-  </si>
-  <si>
-    <t>Credential Access</t>
-  </si>
-  <si>
-    <t>Audit logon failures enabled</t>
-  </si>
-  <si>
-    <t>Detects multiple failed login attempts from a single IP.</t>
-  </si>
-  <si>
-    <t>Windows - Suspicious PowerShell Execution</t>
-  </si>
-  <si>
-    <t>Windows - Suspicious PowerShell Execution Detected</t>
-  </si>
-  <si>
-    <t>Windows - Powershell Execution By Admin</t>
-  </si>
-  <si>
-    <t>Windows - Suspicious PowerShell Execution - With Admin Privileges</t>
-  </si>
-  <si>
-    <t>Sysmon</t>
-  </si>
-  <si>
-    <t>Sysmon logging for process creation</t>
-  </si>
-  <si>
-    <t>Detects PowerShell executions, initiated by admin users</t>
-  </si>
-  <si>
     <t>Detects suspicious PowerShell usage via command prompt.</t>
   </si>
   <si>
+    <t>Office365 - Mass File Deletion - Initiated By External User</t>
+  </si>
+  <si>
+    <t>Office365 - Unusual High Amounts Of Files Deleted By External User</t>
+  </si>
+  <si>
+    <t>Windows - Mass file deletions</t>
+  </si>
+  <si>
+    <t>Office 365</t>
+  </si>
+  <si>
+    <t>Audit Logs</t>
+  </si>
+  <si>
+    <t>T1070</t>
+  </si>
+  <si>
+    <t>T1070,004</t>
+  </si>
+  <si>
+    <t>GitLab</t>
+  </si>
+  <si>
+    <t>Audit logging enabled</t>
+  </si>
+  <si>
+    <t>Detects unusual high amounts of file deletions, initiated by external users</t>
+  </si>
+  <si>
     <t>Office365 - Mass File Deletion - Initiated By Internal User</t>
   </si>
   <si>
-    <t>Office365 - Unusual High Amounts Of Files Deleted By External User</t>
-  </si>
-  <si>
     <t>Office365 - Mass File Deletions From Known Accounts</t>
   </si>
   <si>
-    <t>Office365 - Mass File Deletion - Initiated By External User</t>
-  </si>
-  <si>
-    <t>Windows - Brute Force Password Guessing Detected</t>
-  </si>
-  <si>
-    <t>Windows - Mass file deletions</t>
-  </si>
-  <si>
-    <t>Office 365</t>
-  </si>
-  <si>
-    <t>Audit Logs</t>
-  </si>
-  <si>
-    <t>T1070</t>
-  </si>
-  <si>
-    <t>T1070,004</t>
-  </si>
-  <si>
-    <t>GitLab</t>
-  </si>
-  <si>
-    <t>Audit logging enabled</t>
-  </si>
-  <si>
     <t>Audit logging must be active</t>
   </si>
   <si>
-    <t>Detects unusual high amounts of file deletions, initiated by external users</t>
-  </si>
-  <si>
     <t>Detects high amount of files deleted, initiated by internal users</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Office365 - Suspicious App Consent Granted</t>
   </si>
   <si>
@@ -282,14 +285,14 @@
     <t>Detects excessive downloads from SharePoint or OneDrive</t>
   </si>
   <si>
-    <t xml:space="preserve">Green -&gt; Only available in Splunk   ----   Blue -&gt; Only available in Sentinel   -----    Yellow -&gt; Present in both   -----   Red -&gt; Changed by me  ---- </t>
+    <t>Note: This is a mock-up version of the use-case library. The detection rules shown here are fictional and do not reflect actual datasets or environments used during my internship.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +310,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,18 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -410,6 +414,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -442,16 +453,16 @@
   <autoFilter ref="A3:U428" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Technology"/>
-    <tableColumn id="23" xr3:uid="{3D043B49-6B29-442A-8BB5-58A2D167801C}" name="Name Optimized" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{3D043B49-6B29-442A-8BB5-58A2D167801C}" name="Name Optimized" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="19" xr3:uid="{BDB1D24A-276D-467C-95CF-8B649A68FB6F}" name="Match Tag" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{BDB1D24A-276D-467C-95CF-8B649A68FB6F}" name="Match Tag" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Severity"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Products"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Log Sources"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Is Active"/>
-    <tableColumn id="20" xr3:uid="{924EEB16-140F-4547-9EF9-9DF646C85B3D}" name="Techniques optimized" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{924EEB16-140F-4547-9EF9-9DF646C85B3D}" name="Techniques optimized" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Techniques"/>
-    <tableColumn id="21" xr3:uid="{E60C317C-E818-47E4-8ACD-2AD731E62708}" name="Tactics optimized" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{E60C317C-E818-47E4-8ACD-2AD731E62708}" name="Tactics optimized" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tactics"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is Custom"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Auto-Assign"/>
@@ -767,265 +778,265 @@
   <dimension ref="A1:V391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="3" width="114.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.109375" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="114.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
     <col min="7" max="7" width="87" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" customWidth="1"/>
-    <col min="18" max="19" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.88671875" customWidth="1"/>
-    <col min="21" max="21" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.28515625" customWidth="1"/>
+    <col min="18" max="19" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.85546875" customWidth="1"/>
+    <col min="21" max="21" width="81.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="28.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="16.149999999999999" customHeight="1">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="U5" t="s">
+      <c r="C6" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
         <v>36</v>
       </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>54</v>
@@ -1034,83 +1045,83 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
@@ -1119,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>65</v>
@@ -1128,16 +1139,16 @@
         <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" t="s">
         <v>36</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" t="s">
-        <v>43</v>
       </c>
       <c r="Q8" t="s">
         <v>67</v>
@@ -1146,24 +1157,24 @@
         <v>68</v>
       </c>
       <c r="U8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
@@ -1172,50 +1183,50 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
         <v>65</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>63</v>
@@ -1224,28 +1235,28 @@
         <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -1253,18 +1264,18 @@
         <v>68</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>63</v>
@@ -1273,71 +1284,75 @@
         <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="R11" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11"/>
     </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:22" ht="18" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1"/>
+    <row r="37" ht="13.15" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="43" ht="18" customHeight="1"/>
+    <row r="44" ht="19.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="17.25" customHeight="1"/>
+    <row r="54" ht="17.25" customHeight="1"/>
+    <row r="55" ht="12" customHeight="1"/>
+    <row r="56" ht="15" customHeight="1"/>
+    <row r="57" ht="22.5" customHeight="1"/>
+    <row r="58" ht="15" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.899999999999999" customHeight="1"/>
+    <row r="190" ht="13.9" customHeight="1"/>
+    <row r="225" ht="16.149999999999999" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="324" ht="16.149999999999999" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:U11">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($G4&lt;&gt;"", $D4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
